--- a/ITProjectExecution/AgilePM/ProductBacklog.xlsx
+++ b/ITProjectExecution/AgilePM/ProductBacklog.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectExecution\AgilePM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="OldProductBacklog" sheetId="2" r:id="rId2"/>
     <sheet name="ProductBacklog" sheetId="3" r:id="rId3"/>
     <sheet name="ToDoList" sheetId="4" r:id="rId4"/>
+    <sheet name="MajorModules" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OldProductBacklog!$A$1:$M$1</definedName>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="398">
   <si>
     <t>Anodiam</t>
   </si>
@@ -5683,6 +5684,207 @@
   </si>
   <si>
     <t>Sl#</t>
+  </si>
+  <si>
+    <t>Sub Sl #</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Sub Topic</t>
+  </si>
+  <si>
+    <t>Teacher Job Application</t>
+  </si>
+  <si>
+    <t>Teacher App Apply for Job</t>
+  </si>
+  <si>
+    <t>Admin App to Accept / Reject each Application</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Anodiam corporate email service</t>
+  </si>
+  <si>
+    <t>Ingress and Domain Name</t>
+  </si>
+  <si>
+    <t>Https</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Secrets</t>
+  </si>
+  <si>
+    <t>Load Test</t>
+  </si>
+  <si>
+    <t>Pen Test</t>
+  </si>
+  <si>
+    <t>CI/CD Jenkins</t>
+  </si>
+  <si>
+    <t>Ansible Backup &amp; Recovery of (DB and App)</t>
+  </si>
+  <si>
+    <t>Pronethious Monitoring</t>
+  </si>
+  <si>
+    <t>Geaphana Dash Board</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Course Buy &amp; Sale</t>
+  </si>
+  <si>
+    <t>Teacher Upload Video Material</t>
+  </si>
+  <si>
+    <t>Teacher Upload Non Video Material (Text only)</t>
+  </si>
+  <si>
+    <t>Admin App to Accept / Reject each Material</t>
+  </si>
+  <si>
+    <t>Students can Register to Student App</t>
+  </si>
+  <si>
+    <t>Student can Buy Courses (PAY APP) module integration</t>
+  </si>
+  <si>
+    <t>Student can Buy Courses (BANK Transaction) module integration</t>
+  </si>
+  <si>
+    <t>Students can Consume Course</t>
+  </si>
+  <si>
+    <t>Students stopped to download or do data leakage of course</t>
+  </si>
+  <si>
+    <t>Query Resolution</t>
+  </si>
+  <si>
+    <t>Teacher Post Resolutions</t>
+  </si>
+  <si>
+    <t>Student Post Queries (Blogging)</t>
+  </si>
+  <si>
+    <t>Supporting Partners Modules</t>
+  </si>
+  <si>
+    <t>Videographer</t>
+  </si>
+  <si>
+    <t>Film Director</t>
+  </si>
+  <si>
+    <t>Grahic Artists</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Office Admin</t>
+  </si>
+  <si>
+    <t>Accounting and Finance</t>
+  </si>
+  <si>
+    <t>Quality Control Modules</t>
+  </si>
+  <si>
+    <t>Academic Reviewers</t>
+  </si>
+  <si>
+    <t>Film Revierers</t>
+  </si>
+  <si>
+    <t>Finance and Accounts</t>
+  </si>
+  <si>
+    <t>Partner Payout Module (BANKING Transactions)</t>
+  </si>
+  <si>
+    <t>Cost Center Management Module</t>
+  </si>
+  <si>
+    <t>Practice Tests</t>
+  </si>
+  <si>
+    <t>Automatic MCQ Test Modules</t>
+  </si>
+  <si>
+    <t>Sample Long Questions Module</t>
+  </si>
+  <si>
+    <t>AI, Analytics &amp; Reports</t>
+  </si>
+  <si>
+    <t>Course Unit-Cost optimization</t>
+  </si>
+  <si>
+    <t>Teacher Reporting abour their courses</t>
+  </si>
+  <si>
+    <t>Corporate Reporting of course performances</t>
+  </si>
+  <si>
+    <t>Patents, students reporting of student's performances</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Student Web Services</t>
+  </si>
+  <si>
+    <t>Student Mobile App</t>
   </si>
 </sst>
 </file>
@@ -5976,7 +6178,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6159,6 +6361,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6206,7 +6410,7 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6442,31 +6646,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6663,11 +6867,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -6739,11 +6943,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -6811,11 +7015,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -6957,11 +7161,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -6991,11 +7195,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -7117,11 +7321,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -9369,11 +9573,11 @@
       <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="62" t="s">
         <v>191</v>
       </c>
@@ -17495,7 +17699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -17511,16 +17715,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="77" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17977,4 +18181,496 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="76">
+        <v>22</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="76">
+        <v>23</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="76">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="76">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="76">
+        <v>26</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="76">
+        <v>27</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="76">
+        <v>28</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>391</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="76">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="76">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="76">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="76">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="76">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="76">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="76">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+      <c r="C45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ITProjectExecution/AgilePM/ProductBacklog.xlsx
+++ b/ITProjectExecution/AgilePM/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -6363,6 +6363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6410,7 +6411,6 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6632,7 +6632,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -6646,31 +6646,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6867,11 +6867,11 @@
       <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="56"/>
       <c r="H3" s="42" t="s">
         <v>185</v>
@@ -6943,11 +6943,11 @@
       <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="56"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36">
@@ -7015,11 +7015,11 @@
       <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="59" t="s">
         <v>178</v>
       </c>
@@ -7161,11 +7161,11 @@
       <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="36" t="s">
         <v>161</v>
       </c>
@@ -7195,11 +7195,11 @@
       <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="36" t="s">
         <v>162</v>
       </c>
@@ -7321,11 +7321,11 @@
       <c r="C16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="62" t="s">
         <v>191</v>
       </c>
@@ -9573,11 +9573,11 @@
       <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="62" t="s">
         <v>191</v>
       </c>
@@ -18187,9 +18187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18201,16 +18201,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="78" t="s">
         <v>333</v>
       </c>
     </row>
